--- a/Instances/05_Uniform.xlsx
+++ b/Instances/05_Uniform.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3081,7 +3081,7 @@
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3110,7 +3110,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3168,7 +3168,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3197,7 +3197,7 @@
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3400,7 +3400,7 @@
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3429,7 +3429,7 @@
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3458,7 +3458,7 @@
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3516,7 +3516,7 @@
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3545,7 +3545,7 @@
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3574,7 +3574,7 @@
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3603,7 +3603,7 @@
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3632,7 +3632,7 @@
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3661,7 +3661,7 @@
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3690,7 +3690,7 @@
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3719,7 +3719,7 @@
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3748,7 +3748,7 @@
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3777,7 +3777,7 @@
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3806,7 +3806,7 @@
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.2</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>36</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.4</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.8</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.8</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>36</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>

--- a/Instances/05_Uniform.xlsx
+++ b/Instances/05_Uniform.xlsx
@@ -3052,7 +3052,7 @@
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.03570039025120977</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.02540661556803772</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3110,7 +3110,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.02052947653740278</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.0237745319837976</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3168,7 +3168,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.02570590732238077</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3197,7 +3197,7 @@
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.02993530281970496</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.002441885175396317</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.003588917432401077</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.004370327870328921</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.002425179007768862</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.00237761886478994</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.004167832557698206</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.0007671908324734375</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.02209580373015031</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.0006967000775319426</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.002262781867443034</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3516,7 +3516,7 @@
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.0008719982960052172</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.02584523915403047</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.0008265449995909321</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3603,7 +3603,7 @@
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.01244591907600628</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3632,7 +3632,7 @@
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.01091789506857471</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3661,7 +3661,7 @@
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.01166456505566621</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3690,7 +3690,7 @@
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.01097009045936492</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3719,7 +3719,7 @@
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.01386802379925694</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3748,7 +3748,7 @@
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.01175855517404426</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3777,7 +3777,7 @@
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.01433815708934916</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3806,7 +3806,7 @@
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.01132452938704305</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21.6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.8</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.2</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.2</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_Uniform.xlsx
+++ b/Instances/05_Uniform.xlsx
@@ -3052,7 +3052,7 @@
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03570039025120977</v>
+        <v>0.002139818245942074</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3081,7 +3081,7 @@
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02540661556803772</v>
+        <v>0.001216564259729375</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3110,7 +3110,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02052947653740278</v>
+        <v>0.001576450001258915</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0237745319837976</v>
+        <v>0.001255684919312648</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3168,7 +3168,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02570590732238077</v>
+        <v>0.0017924961326947</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02993530281970496</v>
+        <v>0.001446552399943105</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3226,7 +3226,7 @@
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002441885175396317</v>
+        <v>0.0001798246584588429</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>0.003588917432401077</v>
+        <v>0.0002320399237810864</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004370327870328921</v>
+        <v>0.0002406483441918384</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002425179007768862</v>
+        <v>0.0001971526041895163</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3342,7 +3342,7 @@
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00237761886478994</v>
+        <v>0.0001554935402106002</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>0.004167832557698206</v>
+        <v>0.0002555081815564404</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0007671908324734375</v>
+        <v>4.554175804916932e-05</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02209580373015031</v>
+        <v>0.001479947430533705</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0006967000775319426</v>
+        <v>6.316101958708273e-05</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002262781867443034</v>
+        <v>0.0001610617626777251</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3516,7 +3516,7 @@
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0008719982960052172</v>
+        <v>5.189113821054022e-05</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02584523915403047</v>
+        <v>0.001967047046345992</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0008265449995909321</v>
+        <v>4.02436771446279e-05</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3603,7 +3603,7 @@
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.01244591907600628</v>
+        <v>0.0007957671526518744</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3632,7 +3632,7 @@
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.01091789506857471</v>
+        <v>0.0005994796453037451</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3661,7 +3661,7 @@
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01166456505566621</v>
+        <v>0.0006142797394149899</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3690,7 +3690,7 @@
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>0.01097009045936492</v>
+        <v>0.0006904152052912543</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3719,7 +3719,7 @@
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01386802379925694</v>
+        <v>0.0007801652913440691</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3748,7 +3748,7 @@
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01175855517404426</v>
+        <v>0.0006474496086164552</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3777,7 +3777,7 @@
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>0.01433815708934916</v>
+        <v>0.0009009468951008669</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3806,7 +3806,7 @@
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>0.01132452938704305</v>
+        <v>0.0009738950875746188</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21.6</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>36</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.2</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.2</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>10.8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>10.8</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/05_Uniform.xlsx
+++ b/Instances/05_Uniform.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002139818245942074</v>
+        <v>0.01241923245084437</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3075,13 +3075,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001216564259729375</v>
+        <v>0.01118382884135039</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3110,7 +3110,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.001576450001258915</v>
+        <v>0.01034808900614826</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001255684919312648</v>
+        <v>0.01128200263071399</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3168,7 +3168,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0017924961326947</v>
+        <v>0.01481711103743762</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.001446552399943105</v>
+        <v>0.01460445368014902</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001798246584588429</v>
+        <v>0.001164440995685064</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002320399237810864</v>
+        <v>0.002049358153128387</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0002406483441918384</v>
+        <v>0.001800009175754872</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0001971526041895163</v>
+        <v>0.001289930465849105</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0001554935402106002</v>
+        <v>0.001117492170681917</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002555081815564404</v>
+        <v>0.001917255197175971</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3400,7 +3400,7 @@
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>4.554175804916932e-05</v>
+        <v>0.0004541368067324091</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>0.001479947430533705</v>
+        <v>0.008990656988004378</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3458,7 +3458,7 @@
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>6.316101958708273e-05</v>
+        <v>0.0004265394157893759</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0001610617626777251</v>
+        <v>0.001359505926057596</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3516,7 +3516,7 @@
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>5.189113821054022e-05</v>
+        <v>0.0005242492746282795</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001967047046345992</v>
+        <v>0.01717820039706056</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3574,7 +3574,7 @@
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>4.02436771446279e-05</v>
+        <v>0.000381260340887169</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3597,13 +3597,13 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0007957671526518744</v>
+        <v>0.004736525258284807</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3626,13 +3626,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0005994796453037451</v>
+        <v>0.006792384739928005</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3655,13 +3655,13 @@
         <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0006142797394149899</v>
+        <v>0.005779829028299459</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3684,13 +3684,13 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0006904152052912543</v>
+        <v>0.007060000849997311</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3713,13 +3713,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0007801652913440691</v>
+        <v>0.005310762613338753</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3742,13 +3742,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0006474496086164552</v>
+        <v>0.007041435855077873</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3771,13 +3771,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0009009468951008669</v>
+        <v>0.006456798898084591</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3800,13 +3800,13 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0009738950875746188</v>
+        <v>0.006663206438851699</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>21.6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7.2</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>21.6</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14.4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.8</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.8</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.8</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>21.6</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>18</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>28.8</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>

--- a/Instances/05_Uniform.xlsx
+++ b/Instances/05_Uniform.xlsx
@@ -3046,13 +3046,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01241923245084437</v>
+        <v>0.01701</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3081,7 +3081,7 @@
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01118382884135039</v>
+        <v>0.012564</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3104,13 +3104,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01034808900614826</v>
+        <v>0.012627</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3133,13 +3133,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01128200263071399</v>
+        <v>0.0124875</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3162,13 +3162,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01481711103743762</v>
+        <v>0.0139995</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01460445368014902</v>
+        <v>0.0144</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3220,13 +3220,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001164440995685064</v>
+        <v>0.00144</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3249,13 +3249,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002049358153128387</v>
+        <v>0.002232</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3278,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001800009175754872</v>
+        <v>0.00216</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3307,13 +3307,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001289930465849105</v>
+        <v>0.00153</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3336,13 +3336,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001117492170681917</v>
+        <v>0.001494</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3365,13 +3365,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001917255197175971</v>
+        <v>0.002142</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3394,13 +3394,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0004541368067324091</v>
+        <v>0.0004635</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3423,13 +3423,13 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>0.008990656988004378</v>
+        <v>0.012609</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3452,13 +3452,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0004265394157893759</v>
+        <v>0.0004815</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3481,13 +3481,13 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001359505926057596</v>
+        <v>0.001494</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3510,13 +3510,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0005242492746282795</v>
+        <v>0.0005715</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3539,13 +3539,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01717820039706056</v>
+        <v>0.016173</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3568,13 +3568,13 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000381260340887169</v>
+        <v>0.000396</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3603,7 +3603,7 @@
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004736525258284807</v>
+        <v>0.006581249999999999</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3632,7 +3632,7 @@
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.006792384739928005</v>
+        <v>0.00663975</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3661,7 +3661,7 @@
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>0.005779829028299459</v>
+        <v>0.006599249999999999</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3690,7 +3690,7 @@
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>0.007060000849997311</v>
+        <v>0.00678375</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3719,7 +3719,7 @@
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.005310762613338753</v>
+        <v>0.00732375</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3748,7 +3748,7 @@
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.007041435855077873</v>
+        <v>0.007281000000000001</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3777,7 +3777,7 @@
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>0.006456798898084591</v>
+        <v>0.00755775</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3806,7 +3806,7 @@
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>0.006663206438851699</v>
+        <v>0.0076455</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>36</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14.4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>5.4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7.2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5822,7 +5822,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>21.6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14.4</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21.6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14.4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>5.4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.6</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21.6</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5910,7 +5910,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>14.4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -5918,7 +5918,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5958,7 +5958,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.5</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6448,7 +6448,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>

--- a/Instances/05_Uniform.xlsx
+++ b/Instances/05_Uniform.xlsx
@@ -3052,7 +3052,7 @@
         <v>0.00378</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01701</v>
+        <v>0.009072</v>
       </c>
       <c r="F2" t="n">
         <v>0.0378</v>
@@ -3081,7 +3081,7 @@
         <v>0.002792</v>
       </c>
       <c r="E3" t="n">
-        <v>0.012564</v>
+        <v>0.0067008</v>
       </c>
       <c r="F3" t="n">
         <v>0.02792</v>
@@ -3110,7 +3110,7 @@
         <v>0.011224</v>
       </c>
       <c r="E4" t="n">
-        <v>0.012627</v>
+        <v>0.006734399999999999</v>
       </c>
       <c r="F4" t="n">
         <v>0.11224</v>
@@ -3139,7 +3139,7 @@
         <v>0.0111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0124875</v>
+        <v>0.006660000000000001</v>
       </c>
       <c r="F5" t="n">
         <v>0.111</v>
@@ -3168,7 +3168,7 @@
         <v>0.012444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0139995</v>
+        <v>0.0074664</v>
       </c>
       <c r="F6" t="n">
         <v>0.12444</v>
@@ -3197,7 +3197,7 @@
         <v>0.0128</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0144</v>
+        <v>0.007680000000000001</v>
       </c>
       <c r="F7" t="n">
         <v>0.128</v>
@@ -3226,7 +3226,7 @@
         <v>0.00032</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00144</v>
+        <v>0.0007680000000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.0032</v>
@@ -3255,7 +3255,7 @@
         <v>0.000496</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002232</v>
+        <v>0.0011904</v>
       </c>
       <c r="F9" t="n">
         <v>0.00496</v>
@@ -3284,7 +3284,7 @@
         <v>0.00048</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00216</v>
+        <v>0.001152</v>
       </c>
       <c r="F10" t="n">
         <v>0.0048</v>
@@ -3313,7 +3313,7 @@
         <v>0.00034</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00153</v>
+        <v>0.0008160000000000001</v>
       </c>
       <c r="F11" t="n">
         <v>0.0034</v>
@@ -3342,7 +3342,7 @@
         <v>0.000332</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001494</v>
+        <v>0.0007968</v>
       </c>
       <c r="F12" t="n">
         <v>0.00332</v>
@@ -3371,7 +3371,7 @@
         <v>0.000476</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002142</v>
+        <v>0.0011424</v>
       </c>
       <c r="F13" t="n">
         <v>0.00476</v>
@@ -3400,7 +3400,7 @@
         <v>0.000412</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0004635</v>
+        <v>0.0002472</v>
       </c>
       <c r="F14" t="n">
         <v>0.00412</v>
@@ -3429,7 +3429,7 @@
         <v>0.005604</v>
       </c>
       <c r="E15" t="n">
-        <v>0.012609</v>
+        <v>0.0067248</v>
       </c>
       <c r="F15" t="n">
         <v>0.05604000000000001</v>
@@ -3458,7 +3458,7 @@
         <v>0.000428</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0004815</v>
+        <v>0.0002568000000000001</v>
       </c>
       <c r="F16" t="n">
         <v>0.004280000000000001</v>
@@ -3487,7 +3487,7 @@
         <v>0.000332</v>
       </c>
       <c r="E17" t="n">
-        <v>0.001494</v>
+        <v>0.0007968</v>
       </c>
       <c r="F17" t="n">
         <v>0.00332</v>
@@ -3516,7 +3516,7 @@
         <v>0.000508</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0005715</v>
+        <v>0.0003048</v>
       </c>
       <c r="F18" t="n">
         <v>0.005079999999999999</v>
@@ -3545,7 +3545,7 @@
         <v>0.007188</v>
       </c>
       <c r="E19" t="n">
-        <v>0.016173</v>
+        <v>0.008625600000000001</v>
       </c>
       <c r="F19" t="n">
         <v>0.07188</v>
@@ -3574,7 +3574,7 @@
         <v>0.000352</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000396</v>
+        <v>0.0002112</v>
       </c>
       <c r="F20" t="n">
         <v>0.003520000000000001</v>
@@ -3603,7 +3603,7 @@
         <v>0.0117</v>
       </c>
       <c r="E21" t="n">
-        <v>0.006581249999999999</v>
+        <v>0.003509999999999999</v>
       </c>
       <c r="F21" t="n">
         <v>0.117</v>
@@ -3632,7 +3632,7 @@
         <v>0.011804</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00663975</v>
+        <v>0.0035412</v>
       </c>
       <c r="F22" t="n">
         <v>0.11804</v>
@@ -3661,7 +3661,7 @@
         <v>0.011732</v>
       </c>
       <c r="E23" t="n">
-        <v>0.006599249999999999</v>
+        <v>0.0035196</v>
       </c>
       <c r="F23" t="n">
         <v>0.11732</v>
@@ -3690,7 +3690,7 @@
         <v>0.01206</v>
       </c>
       <c r="E24" t="n">
-        <v>0.00678375</v>
+        <v>0.003618</v>
       </c>
       <c r="F24" t="n">
         <v>0.1206</v>
@@ -3719,7 +3719,7 @@
         <v>0.01302</v>
       </c>
       <c r="E25" t="n">
-        <v>0.00732375</v>
+        <v>0.003906</v>
       </c>
       <c r="F25" t="n">
         <v>0.1302</v>
@@ -3748,7 +3748,7 @@
         <v>0.012944</v>
       </c>
       <c r="E26" t="n">
-        <v>0.007281000000000001</v>
+        <v>0.003883200000000001</v>
       </c>
       <c r="F26" t="n">
         <v>0.12944</v>
@@ -3777,7 +3777,7 @@
         <v>0.013436</v>
       </c>
       <c r="E27" t="n">
-        <v>0.00755775</v>
+        <v>0.0040308</v>
       </c>
       <c r="F27" t="n">
         <v>0.13436</v>
@@ -3806,7 +3806,7 @@
         <v>0.013592</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0076455</v>
+        <v>0.0040776</v>
       </c>
       <c r="F28" t="n">
         <v>0.13592</v>
@@ -5774,7 +5774,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>80</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -5790,7 +5790,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -5798,7 +5798,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -5830,7 +5830,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>160</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -5838,7 +5838,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -5846,7 +5846,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -5854,7 +5854,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -5862,7 +5862,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5870,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -5878,7 +5878,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -5886,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5894,7 +5894,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -5902,7 +5902,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -5926,7 +5926,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -5942,7 +5942,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5950,7 +5950,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5966,7 +5966,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -5974,7 +5974,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5982,7 +5982,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -6092,7 +6092,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -6359,7 +6359,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -6804,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -6982,7 +6982,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -7160,7 +7160,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -7427,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -7516,7 +7516,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -7961,7 +7961,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -8050,7 +8050,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -8317,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
@@ -8406,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="AB28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
